--- a/tietokanta/class_progression/class_progression_Monk.xlsx
+++ b/tietokanta/class_progression/class_progression_Monk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A495D43E-D562-4A41-B510-9AD9DAC14335}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9214F542-4287-4D49-B5D8-8F71A188FEFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1920" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -429,12 +429,15 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
